--- a/media/SLICE/MIS/FEB 22/SLICE PERFORMANCE.xlsx
+++ b/media/SLICE/MIS/FEB 22/SLICE PERFORMANCE.xlsx
@@ -547,16 +547,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12973319</v>
+        <v>13016982</v>
       </c>
       <c r="C2" t="n">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D2" t="n">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E2" t="n">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>10370416</v>
+        <v>9214208</v>
       </c>
       <c r="J2" t="n">
-        <v>2546642</v>
+        <v>3746513</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>56261</v>
       </c>
       <c r="N2" t="n">
-        <v>79.94</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>19.63</v>
+        <v>28.78</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0.43</v>
       </c>
       <c r="S2" t="n">
-        <v>19.63</v>
+        <v>28.78</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1128903</v>
+        <v>1688836</v>
       </c>
     </row>
     <row r="3">
@@ -620,7 +620,7 @@
         <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -629,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>4186884</v>
+        <v>4146037</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -644,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>280699</v>
+        <v>321546</v>
       </c>
       <c r="M3" t="n">
         <v>151785</v>
       </c>
       <c r="N3" t="n">
-        <v>90.64</v>
+        <v>89.75</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.08</v>
+        <v>6.96</v>
       </c>
       <c r="R3" t="n">
         <v>3.29</v>
       </c>
       <c r="S3" t="n">
-        <v>6.08</v>
+        <v>6.96</v>
       </c>
       <c r="T3" t="n">
-        <v>6.08</v>
+        <v>6.96</v>
       </c>
       <c r="U3" t="n">
-        <v>231682</v>
+        <v>278583</v>
       </c>
     </row>
     <row r="4">
